--- a/横データ.xlsx
+++ b/横データ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TNakada\Desktop\GitHubPub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EADFADAB-2D78-4A61-9257-1C94FE3ECB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{450FE1CF-654E-4A56-8857-4163B90505D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10095" yWindow="2685" windowWidth="18300" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2385" windowWidth="18300" windowHeight="12930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,13 +59,28 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,9 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -366,7 +383,7 @@
   <dimension ref="A1:D366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -375,16 +392,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5501,5 +5518,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>